--- a/Excel/Práctica/4. Tablas en Excel/Tablas en Excel, Segmentación de datos en una Tabla, Buscar y reemplazar texto en Excel & Validación de datos usando una lista en Excel.xlsx
+++ b/Excel/Práctica/4. Tablas en Excel/Tablas en Excel, Segmentación de datos en una Tabla, Buscar y reemplazar texto en Excel & Validación de datos usando una lista en Excel.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -1029,6 +1029,171 @@
         <scheme val="minor"/>
       </rPr>
       <t>Ahora sí, haciendo click sobre la lupa, podríamos incluso hacer una busqueda avanzada y reemplazar palabras, anteriormente buscadas, por otras (puede reemplazar una en especifico o todas).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para poner en práctica la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validación de datos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, especificamente en una lista de Excel, primero debe situarse sobre la lista en cuestión (al hacer click en ella) e irse a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datos. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">usted podrá ver una opción que se llama: "Validación de datos". En qué consiste la tarea de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validar datos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? Pues, simplemente en condicionar o determinar qué tipos de datos son </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>válidos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para un atributo o campo en cuestión (columna) o incluso para una celda en especifica, más detalladamente, se elige una regla para limitar el tipo de datos que pueden escribirse dentro de una celda. En nuestro ejemplo, en la primera celda de la columna "Departamento", podemos observar que dicha celda ya está condicionada,... sólo recibe como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valores valídos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> criterios de validación de tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Lista",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> así lo hemos querido (y hemos especificado que se trate de una lista despegable también). Es decir, dicha celda, la primera de la columna "Departamento", sólo puede ser rellenada con los datos que estén dentro de su lista despegable (compruebelo... e incluso intente introducir un valor que esté por fuera de esta lista despegable). Es esta la dinámica de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validar datos dentro de una celda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; si usted desea, puede condicionar una celda de tal manera que, dicha celda, sólo pueda recibir números, etc. Puede especificar estas condiciones para una celda o para varias en su conjunto.</t>
     </r>
   </si>
 </sst>
@@ -1175,7 +1340,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1193,7 +1358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="EstiloNaraja" xfId="2"/>
@@ -1203,6 +1367,107 @@
     <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1287,38 +1552,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="d/mm/yy"/>
     </dxf>
     <dxf>
@@ -1334,75 +1567,6 @@
         <vertAlign val="baseline"/>
         <sz val="14"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1516,13 +1680,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G194" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:G193"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="NOMBRE" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="3" name="APELLIDO" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="SALARIO" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Moneda"/>
-    <tableColumn id="5" name="FECHA_NACIMIENTO" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="PESO (KG)" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="DEPARTAMENTO" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="ID" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="NOMBRE" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="APELLIDO" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="SALARIO" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="5" name="FECHA_NACIMIENTO" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="PESO (KG)" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="7" name="DEPARTAMENTO" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1827,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2401,7 +2565,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2423,6 +2587,17 @@
       <c r="G20" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="I20" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2446,6 +2621,15 @@
       <c r="G21" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -2469,6 +2653,15 @@
       <c r="G22" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2492,6 +2685,15 @@
       <c r="G23" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2515,7 +2717,15 @@
       <c r="G24" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2539,6 +2749,15 @@
       <c r="G25" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2562,6 +2781,15 @@
       <c r="G26" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2585,6 +2813,15 @@
       <c r="G27" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2608,6 +2845,15 @@
       <c r="G28" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2631,6 +2877,15 @@
       <c r="G29" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2654,6 +2909,15 @@
       <c r="G30" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2677,6 +2941,15 @@
       <c r="G31" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2700,6 +2973,15 @@
       <c r="G32" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -6416,15 +6698,24 @@
   <sortState ref="A2:G193">
     <sortCondition ref="A2"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I2:Q3"/>
     <mergeCell ref="I5:Q5"/>
     <mergeCell ref="I7:Q12"/>
     <mergeCell ref="I15:Q18"/>
+    <mergeCell ref="I20:Q32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>$G$12:$G$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="27" max="1048575" man="1"/>
+  </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
